--- a/data/trans_media/dukeGLOBAL-Edad-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Edad-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,05; 88,56</t>
+          <t>86,07; 88,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,22; 89,85</t>
+          <t>87,19; 89,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,0; 86,49</t>
+          <t>83,97; 86,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,18; 93,82</t>
+          <t>90,44; 93,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,3; 87,32</t>
+          <t>84,27; 87,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,53; 89,13</t>
+          <t>86,59; 89,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,58; 87,02</t>
+          <t>84,49; 87,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,94; 91,28</t>
+          <t>86,27; 91,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,52; 87,46</t>
+          <t>85,55; 87,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,38; 89,14</t>
+          <t>87,3; 89,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,71; 86,39</t>
+          <t>84,66; 86,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,96; 92,13</t>
+          <t>89,01; 92,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,23; 87,49</t>
+          <t>85,22; 87,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,13; 88,36</t>
+          <t>86,06; 88,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,43; 84,65</t>
+          <t>82,54; 84,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,2; 88,87</t>
+          <t>85,17; 88,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,83; 85,89</t>
+          <t>82,81; 85,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,91; 86,39</t>
+          <t>84,01; 86,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,38; 85,5</t>
+          <t>83,43; 85,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,48; 89,92</t>
+          <t>86,53; 89,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,56; 86,38</t>
+          <t>84,43; 86,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,4; 87,07</t>
+          <t>85,37; 87,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,14; 84,73</t>
+          <t>83,17; 84,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,32; 88,85</t>
+          <t>86,44; 88,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,2; 84,27</t>
+          <t>80,97; 84,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,04; 85,79</t>
+          <t>83,24; 85,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,6; 83,88</t>
+          <t>81,65; 84,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,39; 86,71</t>
+          <t>83,8; 86,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,62; 84,27</t>
+          <t>81,67; 84,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,9; 85,33</t>
+          <t>82,94; 85,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,08; 84,45</t>
+          <t>81,91; 84,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,43; 87,69</t>
+          <t>85,56; 87,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,84; 83,89</t>
+          <t>81,85; 83,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,39; 85,24</t>
+          <t>83,41; 85,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,21; 83,8</t>
+          <t>82,15; 83,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,0; 86,94</t>
+          <t>85,08; 86,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,91; 84,01</t>
+          <t>80,7; 83,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,74; 85,72</t>
+          <t>82,85; 85,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,66; 80,59</t>
+          <t>77,77; 80,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,21; 88,39</t>
+          <t>83,13; 88,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,42; 81,71</t>
+          <t>78,06; 81,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,2; 83,05</t>
+          <t>80,35; 83,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,73; 81,26</t>
+          <t>78,85; 81,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,32; 85,62</t>
+          <t>83,14; 85,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,04; 82,46</t>
+          <t>80,17; 82,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 83,87</t>
+          <t>81,99; 83,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,56; 80,53</t>
+          <t>78,71; 80,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,62; 86,56</t>
+          <t>83,55; 86,32</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,12; 83,04</t>
+          <t>79,05; 83,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,6; 86,87</t>
+          <t>83,69; 86,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,32; 81,46</t>
+          <t>78,4; 81,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,45; 82,68</t>
+          <t>79,27; 82,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,3; 79,19</t>
+          <t>75,29; 79,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,42; 83,04</t>
+          <t>79,43; 82,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,99; 79,23</t>
+          <t>75,86; 79,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,57; 81,37</t>
+          <t>78,75; 81,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,62; 80,4</t>
+          <t>77,71; 80,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>81,89; 84,46</t>
+          <t>82,01; 84,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,61; 79,96</t>
+          <t>77,65; 79,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,53; 81,62</t>
+          <t>79,57; 81,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,38; 78,92</t>
+          <t>75,27; 78,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,76; 82,1</t>
+          <t>79,05; 82,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,91; 80,65</t>
+          <t>77,91; 80,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,7; 81,24</t>
+          <t>78,84; 81,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,35; 75,89</t>
+          <t>72,2; 75,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,88; 81,65</t>
+          <t>78,88; 81,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,07; 76,92</t>
+          <t>73,91; 76,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,7; 79,03</t>
+          <t>76,75; 78,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>74,17; 76,7</t>
+          <t>74,1; 76,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,24; 81,39</t>
+          <t>79,28; 81,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>76,09; 78,06</t>
+          <t>76,04; 78,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>77,85; 79,64</t>
+          <t>78,0; 79,66</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,53; 83,83</t>
+          <t>82,57; 83,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,47; 85,6</t>
+          <t>84,41; 85,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,04; 82,11</t>
+          <t>80,96; 82,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,65; 85,27</t>
+          <t>83,74; 85,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>80,08; 81,45</t>
+          <t>79,98; 81,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,61; 83,71</t>
+          <t>82,64; 83,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,1; 81,25</t>
+          <t>80,07; 81,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>82,85; 84,0</t>
+          <t>82,76; 83,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81,45; 82,39</t>
+          <t>81,51; 82,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83,65; 84,49</t>
+          <t>83,67; 84,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,7; 81,51</t>
+          <t>80,71; 81,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>83,44; 84,44</t>
+          <t>83,47; 84,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeGLOBAL-Edad-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,07; 88,61</t>
+          <t>86,15; 88,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,19; 89,76</t>
+          <t>87,32; 89,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,97; 86,62</t>
+          <t>83,91; 86,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,27; 87,15</t>
+          <t>84,23; 87,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,59; 89,21</t>
+          <t>86,77; 89,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,49; 87,14</t>
+          <t>84,59; 87,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,55; 87,56</t>
+          <t>85,54; 87,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,3; 89,2</t>
+          <t>87,35; 89,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,66; 86,39</t>
+          <t>84,67; 86,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,22; 87,57</t>
+          <t>85,25; 87,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,06; 88,3</t>
+          <t>86,04; 88,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,54; 84,65</t>
+          <t>82,38; 84,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,81; 85,73</t>
+          <t>82,87; 85,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,01; 86,45</t>
+          <t>83,68; 86,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,43; 85,47</t>
+          <t>83,3; 85,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,43; 86,4</t>
+          <t>84,52; 86,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,37; 87,07</t>
+          <t>85,43; 87,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,17; 84,72</t>
+          <t>83,2; 84,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,97; 84,19</t>
+          <t>81,14; 84,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,24; 85,79</t>
+          <t>83,21; 85,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,65; 84,03</t>
+          <t>81,71; 83,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,67; 84,36</t>
+          <t>81,65; 84,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,94; 85,31</t>
+          <t>82,93; 85,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,91; 84,27</t>
+          <t>81,92; 84,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,85; 83,85</t>
+          <t>81,94; 83,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,41; 85,25</t>
+          <t>83,52; 85,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,15; 83,8</t>
+          <t>82,16; 83,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,7; 83,91</t>
+          <t>80,89; 83,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,85; 85,69</t>
+          <t>82,78; 85,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,77; 80,7</t>
+          <t>77,74; 80,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,06; 81,7</t>
+          <t>78,38; 81,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,35; 83,16</t>
+          <t>80,08; 83,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,85; 81,36</t>
+          <t>78,82; 81,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,17; 82,5</t>
+          <t>80,04; 82,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,99; 83,92</t>
+          <t>81,91; 83,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,71; 80,58</t>
+          <t>78,68; 80,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,05; 83,12</t>
+          <t>79,05; 82,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,69; 86,84</t>
+          <t>83,64; 86,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,4; 81,53</t>
+          <t>78,22; 81,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,29; 79,3</t>
+          <t>75,22; 79,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,43; 82,92</t>
+          <t>79,48; 82,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,86; 79,23</t>
+          <t>75,8; 79,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,71; 80,46</t>
+          <t>77,74; 80,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,01; 84,41</t>
+          <t>81,97; 84,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,65; 79,91</t>
+          <t>77,58; 79,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,27; 78,96</t>
+          <t>75,31; 79,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,05; 82,11</t>
+          <t>78,88; 82,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,91; 80,6</t>
+          <t>77,94; 80,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,2; 75,88</t>
+          <t>72,29; 75,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,88; 81,63</t>
+          <t>78,91; 81,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,91; 76,81</t>
+          <t>74,0; 76,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>74,1; 76,79</t>
+          <t>74,18; 76,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,28; 81,37</t>
+          <t>79,27; 81,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>76,04; 78,04</t>
+          <t>75,96; 78,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,57; 83,83</t>
+          <t>82,53; 83,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,41; 85,59</t>
+          <t>84,43; 85,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,96; 82,08</t>
+          <t>81,0; 82,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>79,98; 81,34</t>
+          <t>80,01; 81,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,64; 83,8</t>
+          <t>82,61; 83,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,07; 81,16</t>
+          <t>80,03; 81,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81,51; 82,41</t>
+          <t>81,46; 82,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83,67; 84,53</t>
+          <t>83,69; 84,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,71; 81,47</t>
+          <t>80,69; 81,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
